--- a/DMSNewVSale_2025-12-10_14-19.xlsx
+++ b/DMSNewVSale_2025-12-10_14-19.xlsx
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>130.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1772,7 +1781,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1782,14 +1791,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1798,14 +1807,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1815,14 +1824,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1831,20 +1840,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1855,7 +1864,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1871,7 +1880,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1888,44 +1897,77 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>25</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>43</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="25.5" customHeight="1">
-      <c r="N35" s="13">
-        <v>1671.0899999999999</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>106</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>107</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>108</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="26.25" customHeight="1">
+      <c r="N36" s="13">
+        <v>1706.0899999999999</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2116,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
